--- a/medicine/Premiers secours et secourisme/Téléassistance_à_domicile/Téléassistance_à_domicile.xlsx
+++ b/medicine/Premiers secours et secourisme/Téléassistance_à_domicile/Téléassistance_à_domicile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9assistance_%C3%A0_domicile</t>
+          <t>Téléassistance_à_domicile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La téléassistance à domicile, souvent abrégé en téléassistance, désigne les services de soutien à domicile des personnes dépendantes, âgées ou malades. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9assistance_%C3%A0_domicile</t>
+          <t>Téléassistance_à_domicile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les services de téléassistance en France ont été originellement utilisés pour pallier l’isolement des personnes âgées. C’est l’association Delta 7 qui, dès 1974, installe les premiers systèmes de téléassistance.
 La circulaire PAP 15 du 28 janvier 1977 introduit la notion de secteur géographique avec l’idée de maillage du territoire : « la mise en place de dispositifs qui impliquent le raccordement des personnes âgées isolées au réseau public (…) et la création de services de dialogue et d’assistance » en précisant que des « crédits d’État (équipement et fonctionnement) faciliteront également la mise en place des centres de dialogue et d’assistance. Ceux-ci permettront aux personnes âgées de prendre contact, à tout moment, avec un correspondant (…). Lorsque la manipulation d’un cadran classique de téléphone posera des difficultés, un dispositif adapté, voire la simple pression sur un bouton, pourra être envisagé. »
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9assistance_%C3%A0_domicile</t>
+          <t>Téléassistance_à_domicile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,12 @@
           <t>Médaillon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La téléassistance aux personnes utilise historiquement un médaillon avec un bouton d’alerte qui communique avec un boitier raccordé au téléphone fixe. La personne porte le médaillon et peut appuyer sur le bouton pour que le centre de téléassistance appelle via le haut-parleur du boitier.
-Actuellement, il y a environ 580 000 personnes en France abonnées aux services de téléassistance, pour un marché de 115 millions d'euros annuel[1],[2].
-Assistance mobile
-Aujourd'hui, des solutions mobiles permettent principalement de réaliser un accompagnement de la personne hors de son domicile, notamment par l'association d'un téléphone portable, géolocalisable ou non, et d'un service de téléassistance, ou apportent de nouveaux services comme la détection de mouvement ou la détection de chute (actimétrie), la visiophonie ou encore la téléprésence.
-Évolutions
-Les changements de la société comme la réduction du nombre des aidants, l’allongement de la durée de vie, la diminution du nombre des professionnels de santé font que la téléassistance va prendre une place de plus en plus importante dans la vie de chacun, à la condition qu’elle réussisse à répondre aux défis du monde d’aujourd’hui que sont : la mobilité, la communication, le besoin toujours accru de sécurité…
-Afin de maximiser la sécurité des personnes âgées en France, les organismes et familles ont souvent pris l'habitude d'installer une boite à clés sécurisée devant la propriété de ces personnes à mobilité réduite, afin de pouvoir entrer dans l'appartement en cas d'urgence.
+Actuellement, il y a environ 580 000 personnes en France abonnées aux services de téléassistance, pour un marché de 115 millions d'euros annuel,.
 </t>
         </is>
       </c>
@@ -563,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9assistance_%C3%A0_domicile</t>
+          <t>Téléassistance_à_domicile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +589,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Médaillon</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Assistance mobile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aujourd'hui, des solutions mobiles permettent principalement de réaliser un accompagnement de la personne hors de son domicile, notamment par l'association d'un téléphone portable, géolocalisable ou non, et d'un service de téléassistance, ou apportent de nouveaux services comme la détection de mouvement ou la détection de chute (actimétrie), la visiophonie ou encore la téléprésence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Téléassistance_à_domicile</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9assistance_%C3%A0_domicile</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Médaillon</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Évolutions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les changements de la société comme la réduction du nombre des aidants, l’allongement de la durée de vie, la diminution du nombre des professionnels de santé font que la téléassistance va prendre une place de plus en plus importante dans la vie de chacun, à la condition qu’elle réussisse à répondre aux défis du monde d’aujourd’hui que sont : la mobilité, la communication, le besoin toujours accru de sécurité…
+Afin de maximiser la sécurité des personnes âgées en France, les organismes et familles ont souvent pris l'habitude d'installer une boite à clés sécurisée devant la propriété de ces personnes à mobilité réduite, afin de pouvoir entrer dans l'appartement en cas d'urgence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Téléassistance_à_domicile</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9assistance_%C3%A0_domicile</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Aides et financement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ses revenus et ses conditions de dépendances, un adhérent de service de téléassistance peut bénéficier de l’APA (Allocation Personnalisée d’Autonomie) pouvant être attribué aux personnes de plus de 60ans, délivrée par le Conseil Départemental respectif. Ou en passant par un CCAS[3]. Les services de téléassistance sont un métier éligible aux aides au titre des services à la Personne. Les utilisateurs de ce type de service peuvent donc bénéficier d’un crédit d’impôt à hauteur de 50% des dépenses en téléassistance.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ses revenus et ses conditions de dépendances, un adhérent de service de téléassistance peut bénéficier de l’APA (Allocation Personnalisée d’Autonomie) pouvant être attribué aux personnes de plus de 60ans, délivrée par le Conseil Départemental respectif. Ou en passant par un CCAS. Les services de téléassistance sont un métier éligible aux aides au titre des services à la Personne. Les utilisateurs de ce type de service peuvent donc bénéficier d’un crédit d’impôt à hauteur de 50% des dépenses en téléassistance.
 </t>
         </is>
       </c>
